--- a/CPP/Research Paper Review.xlsx
+++ b/CPP/Research Paper Review.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Comp19\Documents\Group 666\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diploma\CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8242D38-3A0D-487B-A5FD-9F377A799D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -667,7 +668,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="###0;###0"/>
   </numFmts>
@@ -848,28 +849,28 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="2"/>
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1181,28 +1182,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="5" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="32" style="7" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.33203125" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -1213,22 +1214,22 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="2:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
+    <row r="2" spans="2:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-    </row>
-    <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -1239,7 +1240,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="2:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
@@ -1264,15 +1265,15 @@
       <c r="I4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="26"/>
+      <c r="K4" s="23"/>
       <c r="L4" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17">
         <v>1</v>
       </c>
@@ -1297,15 +1298,15 @@
       <c r="I5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="K5" s="23"/>
+      <c r="K5" s="24"/>
       <c r="L5" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17">
         <v>2</v>
       </c>
@@ -1330,15 +1331,15 @@
       <c r="I6" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="23"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17">
         <v>3</v>
       </c>
@@ -1363,15 +1364,15 @@
       <c r="I7" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="23"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="17">
         <v>4</v>
       </c>
@@ -1396,15 +1397,15 @@
       <c r="I8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="23"/>
+      <c r="K8" s="24"/>
       <c r="L8" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17">
         <v>5</v>
       </c>
@@ -1429,15 +1430,15 @@
       <c r="I9" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="K9" s="23"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="17">
         <v>6</v>
       </c>
@@ -1462,15 +1463,15 @@
       <c r="I10" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="K10" s="25"/>
+      <c r="K10" s="22"/>
       <c r="L10" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="17">
         <v>7</v>
       </c>
@@ -1495,15 +1496,15 @@
       <c r="I11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="J11" s="23" t="s">
+      <c r="J11" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="K11" s="23"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="17">
         <v>8</v>
       </c>
@@ -1528,15 +1529,15 @@
       <c r="I12" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="K12" s="23"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="17">
         <v>9</v>
       </c>
@@ -1561,15 +1562,15 @@
       <c r="I13" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="23"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
         <v>10</v>
       </c>
@@ -1594,15 +1595,15 @@
       <c r="I14" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="K14" s="23"/>
+      <c r="K14" s="24"/>
       <c r="L14" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="17">
         <v>11</v>
       </c>
@@ -1627,15 +1628,15 @@
       <c r="I15" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="23"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
         <v>12</v>
       </c>
@@ -1660,15 +1661,15 @@
       <c r="I16" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="23" t="s">
+      <c r="J16" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="K16" s="23"/>
+      <c r="K16" s="24"/>
       <c r="L16" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="17">
         <v>13</v>
       </c>
@@ -1693,15 +1694,15 @@
       <c r="I17" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="K17" s="27"/>
+      <c r="K17" s="25"/>
       <c r="L17" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17">
         <v>14</v>
       </c>
@@ -1726,15 +1727,15 @@
       <c r="I18" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J18" s="25" t="s">
+      <c r="J18" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="K18" s="25"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="17">
         <v>15</v>
       </c>
@@ -1759,15 +1760,15 @@
       <c r="I19" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J19" s="25" t="s">
+      <c r="J19" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="K19" s="25"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="17">
         <v>16</v>
       </c>
@@ -1792,15 +1793,15 @@
       <c r="I20" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="23"/>
+      <c r="K20" s="24"/>
       <c r="L20" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="17">
         <v>17</v>
       </c>
@@ -1825,15 +1826,15 @@
       <c r="I21" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="K21" s="22"/>
+      <c r="K21" s="26"/>
       <c r="L21" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="17">
         <v>18</v>
       </c>
@@ -1858,15 +1859,15 @@
       <c r="I22" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="25"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="17">
         <v>19</v>
       </c>
@@ -1891,15 +1892,15 @@
       <c r="I23" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="J23" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="K23" s="22"/>
+      <c r="K23" s="26"/>
       <c r="L23" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="17">
         <v>20</v>
       </c>
@@ -1924,15 +1925,15 @@
       <c r="I24" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="K24" s="22"/>
+      <c r="K24" s="26"/>
       <c r="L24" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="17">
         <v>21</v>
       </c>
@@ -1957,15 +1958,15 @@
       <c r="I25" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="J25" s="23" t="s">
+      <c r="J25" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="K25" s="23"/>
+      <c r="K25" s="24"/>
       <c r="L25" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="17">
         <v>22</v>
       </c>
@@ -1990,15 +1991,15 @@
       <c r="I26" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="K26" s="25"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
         <v>23</v>
       </c>
@@ -2023,15 +2024,15 @@
       <c r="I27" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="J27" s="23" t="s">
+      <c r="J27" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="K27" s="23"/>
+      <c r="K27" s="24"/>
       <c r="L27" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="17">
         <v>24</v>
       </c>
@@ -2056,15 +2057,15 @@
       <c r="I28" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="K28" s="23"/>
+      <c r="K28" s="24"/>
       <c r="L28" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="17">
         <v>25</v>
       </c>
@@ -2089,15 +2090,15 @@
       <c r="I29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="25" t="s">
+      <c r="J29" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="K29" s="25"/>
+      <c r="K29" s="22"/>
       <c r="L29" s="8" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -2105,6 +2106,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="J29:K29"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J19:K19"/>
@@ -2121,23 +2133,12 @@
     <mergeCell ref="J27:K27"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J8:K8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L15" r:id="rId1"/>
-    <hyperlink ref="L5" r:id="rId2"/>
-    <hyperlink ref="L25" r:id="rId3"/>
-    <hyperlink ref="L27" r:id="rId4"/>
+    <hyperlink ref="L15" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L25" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L27" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
